--- a/data/case1/13/Plm1_1.xlsx
+++ b/data/case1/13/Plm1_1.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.41185312474381419</v>
+        <v>-0.34640275735485204</v>
       </c>
       <c r="B1" s="0">
-        <v>0.41087463225238707</v>
+        <v>0.34566714215203831</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.27667456961540893</v>
+        <v>-0.25507744724267312</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27420104305839743</v>
+        <v>0.25277667161775774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.14020903811588781</v>
+        <v>-0.21908224146656607</v>
       </c>
       <c r="B3" s="0">
-        <v>0.13966213549909057</v>
+        <v>0.21779707872507359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.12766213566381523</v>
+        <v>-0.2057970789153849</v>
       </c>
       <c r="B4" s="0">
-        <v>0.12719385343498146</v>
+        <v>0.20461525485141507</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.12119385407390748</v>
+        <v>-0.1986152555374332</v>
       </c>
       <c r="B5" s="0">
-        <v>0.12027794141600712</v>
+        <v>0.19622292254282758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.085535415012504945</v>
+        <v>-0.098772574887416198</v>
       </c>
       <c r="B6" s="0">
-        <v>0.085437961472690116</v>
+        <v>0.098621009292731099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.065437962239483838</v>
+        <v>-0.078621010130881075</v>
       </c>
       <c r="B7" s="0">
-        <v>0.065228546205727156</v>
+        <v>0.078257585106781491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.04522854697858758</v>
+        <v>-0.05825758595398689</v>
       </c>
       <c r="B8" s="0">
-        <v>0.045087385174903183</v>
+        <v>0.057967146212163811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.039087385843136424</v>
+        <v>-0.051967146949039034</v>
       </c>
       <c r="B9" s="0">
-        <v>0.038980419508266806</v>
+        <v>0.051727832744327351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.032980420181985437</v>
+        <v>-0.045727833490609271</v>
       </c>
       <c r="B10" s="0">
-        <v>0.032971735635960897</v>
+        <v>0.045696320620294273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.028471736297227324</v>
+        <v>-0.041196321353936582</v>
       </c>
       <c r="B11" s="0">
-        <v>0.02845395835228004</v>
+        <v>0.041145146337296268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.022453959026549786</v>
+        <v>-0.035145147086030004</v>
       </c>
       <c r="B12" s="0">
-        <v>0.022398757974031458</v>
+        <v>0.034990960127761372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039151703677320349</v>
+        <v>-0.028990960885580286</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039084889567748249</v>
+        <v>0.028953177830272736</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027084890296785957</v>
+        <v>-0.016953178642484801</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027052823647916391</v>
+        <v>0.016941234853020681</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021052824331403208</v>
+        <v>-0.010941235615106848</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027618480931487</v>
+        <v>0.010935063887658636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027619166367412</v>
+        <v>-0.0049350646509647156</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004242447343774</v>
+        <v>0.0049324026578061453</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090042431353376529</v>
+        <v>0.0010675965779389784</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999992876750312</v>
+        <v>-0.0010674999390012374</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.12420006327650057</v>
+        <v>-0.080589695587402588</v>
       </c>
       <c r="B18" s="0">
-        <v>0.12404399109437136</v>
+        <v>0.080527837709208683</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096744405106676</v>
+        <v>-0.071527838379267017</v>
       </c>
       <c r="B19" s="0">
-        <v>0.02701343771069098</v>
+        <v>0.071041403265206249</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013438350021005</v>
+        <v>-0.018013298244566656</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004268542025414</v>
+        <v>0.018004258310373444</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.009004269182147695</v>
+        <v>-0.0090042589975727338</v>
       </c>
       <c r="B21" s="0">
-        <v>0.008999999359362576</v>
+        <v>0.0089999993121665511</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.09394840070959809</v>
+        <v>-0.0246944308401158</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093635377444222456</v>
+        <v>0.024677077230476741</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084635378099959802</v>
+        <v>-0.015677077920950744</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126904315079187</v>
+        <v>0.015662990790408671</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126905240935208</v>
+        <v>-0.042124646027658308</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999069274985</v>
+        <v>0.041999999017933831</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.028742527057140421</v>
+        <v>-0.091450348369708223</v>
       </c>
       <c r="B25" s="0">
-        <v>0.028729133694980646</v>
+        <v>0.091336481513192069</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.022729134349088298</v>
+        <v>-0.085336482229909194</v>
       </c>
       <c r="B26" s="0">
-        <v>0.022714519883258788</v>
+        <v>0.085195038695204062</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.016714520538019695</v>
+        <v>-0.078314584182061164</v>
       </c>
       <c r="B27" s="0">
-        <v>0.016670498022141711</v>
+        <v>0.077846197580693666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.010670498679100859</v>
+        <v>-0.071846198315268062</v>
       </c>
       <c r="B28" s="0">
-        <v>0.01064995706648908</v>
+        <v>0.07154461620314656</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062518642067477259</v>
+        <v>-0.059544616999328781</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062164109530108647</v>
+        <v>0.059418196120880395</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042164110303486879</v>
+        <v>-0.042169966388336366</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018610651139099</v>
+        <v>0.042019076786252718</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018611390746017</v>
+        <v>-0.027019077620252574</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000656441201087</v>
+        <v>0.027000600596004176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006572293245242</v>
+        <v>-0.0060006014830200627</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999993306778521</v>
+        <v>0.0059999992421690962</v>
       </c>
     </row>
   </sheetData>
